--- a/data/trans_dic/P55_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80,0%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66,75%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>61,5%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>73,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>65,13%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65,12%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67,74%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,04; 86,87</t>
+          <t>70,64; 86,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,17; 78,04</t>
+          <t>68,76; 84,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,07; 73,78</t>
+          <t>57,28; 76,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,21; 69,96</t>
+          <t>56,3; 75,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,29; 78,72</t>
+          <t>60,33; 75,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,15; 71,65</t>
+          <t>64,43; 80,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52,04; 69,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59,94; 76,51</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68,33; 79,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68,47; 79,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58,13; 70,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60,44; 73,75</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>69,18%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>63,07%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>67,36%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65,72%</t>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>76,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>66,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,1; 74,98</t>
+          <t>53,89; 75,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,53; 76,68</t>
+          <t>65,95; 87,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,7; 74,63</t>
+          <t>59,13; 76,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,88; 70,7</t>
+          <t>60,48; 78,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,28; 73,13</t>
+          <t>61,14; 73,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 71,91</t>
+          <t>66,77; 80,91</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55,04; 70,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54,9; 69,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59,76; 73,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69,08; 82,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59,61; 71,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59,29; 71,59</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>72,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>77,29%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>66,46%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>72,13%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>70,52%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>72,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>72,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>54,74%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>72,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,87%</t>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60,88%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63,61%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,48; 79,27</t>
+          <t>63,17; 79,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,56; 73,05</t>
+          <t>68,5; 83,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,28; 76,51</t>
+          <t>59,36; 73,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,76; 60,59</t>
+          <t>62,03; 77,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,32; 76,51</t>
+          <t>67,69; 77,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,19; 65,89</t>
+          <t>67,05; 77,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48,3; 60,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48,96; 62,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>67,3; 76,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69,26; 78,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>56,11; 65,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>58,79; 68,32</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>73,57%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>53,06%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>56,11%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>63,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>48,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53,43%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,81; 80,93</t>
+          <t>69,0; 80,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,13; 60,05</t>
+          <t>65,36; 79,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 61,26</t>
+          <t>44,78; 60,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,69; 49,07</t>
+          <t>48,68; 62,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,36; 69,53</t>
+          <t>50,84; 61,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,12; 53,08</t>
+          <t>57,71; 69,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35,83; 49,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 56,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61,61; 69,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64,3; 72,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43,34; 53,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>49,03; 58,27</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>53,37%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>43,97%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>64,45%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>44,16%</t>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49,49%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,15; 72,84</t>
+          <t>60,68; 72,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,09; 52,07</t>
+          <t>59,59; 73,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,77; 68,14</t>
+          <t>36,71; 52,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,81; 50,73</t>
+          <t>46,14; 61,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,03; 68,97</t>
+          <t>55,24; 68,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,67; 49,15</t>
+          <t>47,09; 61,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,66; 50,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39,44; 52,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59,25; 68,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55,49; 66,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39,13; 49,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44,24; 53,91</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>74,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>58,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>51,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68,32%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>54,4%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,49; 81,67</t>
+          <t>67,92; 82,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,99; 66,26</t>
+          <t>65,16; 80,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,3; 70,86</t>
+          <t>49,98; 67,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,82; 65,57</t>
+          <t>54,87; 71,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62,98; 72,9</t>
+          <t>54,5; 68,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,44; 62,77</t>
+          <t>42,94; 59,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46,4; 65,51</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40,44; 57,11</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62,99; 73,06</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>55,05; 68,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50,8; 63,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>48,36; 60,08</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>72,78%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>59,86%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>64,63%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53,37%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>68,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>56,6%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>58,87%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,2; 75,89</t>
+          <t>68,97; 75,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,32</t>
+          <t>71,12; 77,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,87; 67,08</t>
+          <t>56,64; 63,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,88; 56,49</t>
+          <t>60,16; 67,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,65; 70,74</t>
+          <t>62,27; 67,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,18; 58,95</t>
+          <t>61,3; 67,16</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50,26; 56,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>51,37; 57,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>66,67; 70,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67,02; 71,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54,15; 59,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>56,64; 61,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>390809</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>352232</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27937</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28564</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>343097</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>340056</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22798</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26123</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>733906</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>692287</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50735</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54687</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>345756; 424451</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>313007; 384650</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23394; 31431</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24177; 32525</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>303508; 379205</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>303458; 377683</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19294; 25938</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22648; 28909</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>678223; 787645</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>634192; 736913</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45295; 55309</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48790; 59536</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>386380</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>455121</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33493</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32608</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>340213</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>370022</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29183</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28718</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>726593</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>825143</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62676</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61326</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>312890; 439651</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>379925; 505595</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29025; 37575</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28508; 36867</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>307449; 370611</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>334113; 404914</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25467; 32620</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25081; 31962</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>647508; 791426</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>743694; 888492</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>56846; 68178</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55031; 66453</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>484.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>481094</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>510062</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38787</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42622</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>506077</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>508319</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29078</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30526</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>987171</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1018381</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67866</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>73148</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>418111; 526576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>452075; 550805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34640; 42627</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37489; 46691</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>473088; 541642</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>470086; 544051</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25658; 32128</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26709; 34119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>915872; 1036533</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>942642; 1074288</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62558; 73307</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>67610; 78569</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>472177</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>479143</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30581</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31606</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>359552</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>415295</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21723</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26798</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>831730</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>894438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>52304</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58403</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>431339; 502949</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>425693; 515985</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25809; 34902</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27482; 35237</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>326391; 391613</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>375650; 449887</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>18304; 25116</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23180; 30077</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>780637; 882331</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>837377; 948034</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47120; 57787</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53595; 63690</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>318356</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>329331</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23698</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>304909</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>276907</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21342</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21353</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>623265</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>606239</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40620</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>45051</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>290714; 348426</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>293755; 362333</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15941; 22731</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20486; 27464</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>271237; 335142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>239354; 313929</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18280; 24750</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18394; 24552</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>574743; 660673</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>555600; 661623</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35989; 45184</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>40272; 49081</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>400775</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>411318</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>26804</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28411</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>412175</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>368759</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35248</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29820</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>812950</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>780077</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>62053</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>58232</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>357644; 433602</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>361504; 449341</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23047; 30953</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24710; 32289</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>361530; 456088</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>306000; 425842</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29015; 40966</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25077; 35419</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>749534; 869378</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>697710; 862796</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55195; 68695</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>51766; 64319</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>780.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1063.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2053.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1621.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1096.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2449592</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2537207</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>176881</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>187509</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2266022</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2279359</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>159374</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>163337</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4715615</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4816566</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>336254</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>350847</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2319192; 2548910</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2411199; 2642203</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>167352; 187489</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>178337; 198785</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2180304; 2355697</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2172698; 2380369</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>150096; 169397</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>153856; 172272</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4576420; 4849585</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4647288; 4972506</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>321702; 351919</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>337511; 364359</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>